--- a/biology/Zoologie/Cophyla/Cophyla.xlsx
+++ b/biology/Zoologie/Cophyla/Cophyla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cophyla est un genre d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cophyla est un genre d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 19 espèces de ce genre sont endémiques de Madagascar[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 19 espèces de ce genre sont endémiques de Madagascar.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (30 mars 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (30 mars 2020) :
 Cophyla alticola (Guibé, 1974)
 Cophyla ando (Scherz, Köhler, Vences, and Glaw, 2019)
 Cophyla barbouri (Noble, 1940)
@@ -593,9 +609,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Platypelis[3] a été placé en synonymie avec Cophyla par Peloso et al. en 2015[4]. Platyhyla[5] avait été placé en synonymie avec Platypelis par Guibé en 1978[6] et Paracophyla[7]avait été placé en synonymie avec Platypelis par Blommers-Schlösser et Blanc en 1991[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Platypelis a été placé en synonymie avec Cophyla par Peloso et al. en 2015. Platyhyla avait été placé en synonymie avec Platypelis par Guibé en 1978 et Paracophylaavait été placé en synonymie avec Platypelis par Blommers-Schlösser et Blanc en 1991.
 </t>
         </is>
       </c>
@@ -624,7 +642,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boettger, 1880 : Diagnoses reptilium et batrachiorum novorum a Carolo Ebenau in insula Nossi-Bé Madagascariensi lectorum. Zoologischer Anzeiger, vol. 3, p. 279-283 (texte intégral).</t>
         </is>
